--- a/document/Test/BugList/JobControllerBugList.xlsx
+++ b/document/Test/BugList/JobControllerBugList.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="19095" windowHeight="8445"/>
@@ -13,9 +13,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+  <si>
+    <t>chỗ này ko điền gì thì báo lỗi code</t>
+  </si>
+  <si>
+    <t>ko search đc vietkey</t>
+  </si>
+  <si>
+    <t>error page</t>
+  </si>
+  <si>
+    <t>ko sử dụng đc</t>
+  </si>
+  <si>
+    <t>bỏ hiển thị nhưng vẫn show trên</t>
+  </si>
+  <si>
+    <t>trang chủ &amp; search result</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,58 +75,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>117339</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="609600" y="190500"/>
-          <a:ext cx="7315200" cy="4308339"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -155,6 +136,558 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>467840</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="200025"/>
+          <a:ext cx="7983065" cy="2695951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3257550" y="1447800"/>
+          <a:ext cx="381000" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3676650" y="3419475"/>
+          <a:ext cx="1343025" cy="2152650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>572330</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="5676900"/>
+          <a:ext cx="5944430" cy="3353268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>142968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="9886950"/>
+          <a:ext cx="10058400" cy="2638518"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2809875" y="8620125"/>
+          <a:ext cx="1419225" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>52233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="13954125"/>
+          <a:ext cx="10058400" cy="4195608"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="14982825"/>
+          <a:ext cx="2609850" cy="3771900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="16144875"/>
+          <a:ext cx="0" cy="2466975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9229725" y="14820900"/>
+          <a:ext cx="1619250" cy="485776"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8943975" y="16116300"/>
+          <a:ext cx="2019300" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8582025" y="16506825"/>
+          <a:ext cx="2381250" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -235,6 +768,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -269,6 +803,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,15 +979,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C18:S99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="T93" sqref="T93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>3</v>
+      </c>
+      <c r="H99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/document/Test/BugList/JobControllerBugList.xlsx
+++ b/document/Test/BugList/JobControllerBugList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>chỗ này ko điền gì thì báo lỗi code</t>
   </si>
@@ -32,6 +32,39 @@
   </si>
   <si>
     <t>trang chủ &amp; search result</t>
+  </si>
+  <si>
+    <t>dùng 1 trong 2 cái là đc rồi</t>
+  </si>
+  <si>
+    <t>cho cái message báo thành công chứ</t>
+  </si>
+  <si>
+    <t>mấy thông tin có dấu * khi không điền thì ko có báo lỗi mà f5 page luôn</t>
+  </si>
+  <si>
+    <t>cho bọn này giới hạn ký tự luôn đi</t>
+  </si>
+  <si>
+    <t>thừa 1 khoảng trắng nè</t>
+  </si>
+  <si>
+    <t>click là xóa luôn</t>
+  </si>
+  <si>
+    <t>ko chuyển hướng tới công ty info</t>
+  </si>
+  <si>
+    <t>ko có message xác nhận</t>
+  </si>
+  <si>
+    <t>tôi nghĩ dùng 1 trong 2 cái là được rồi</t>
+  </si>
+  <si>
+    <t>dùng độ phân giải 1024x768</t>
+  </si>
+  <si>
+    <t>hiển thị ntn tôi thấy ko ổn</t>
   </si>
 </sst>
 </file>
@@ -665,6 +698,790 @@
         <a:xfrm flipV="1">
           <a:off x="8582025" y="16506825"/>
           <a:ext cx="2381250" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>22500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="19526250"/>
+          <a:ext cx="10058400" cy="4118250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6229350" y="23145750"/>
+          <a:ext cx="2657475" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3914775" y="23221950"/>
+          <a:ext cx="2171700" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>506126</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>172293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="24993600"/>
+          <a:ext cx="9316751" cy="6039693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9248775" y="28536900"/>
+          <a:ext cx="1123950" cy="2066925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8410575" y="30575250"/>
+          <a:ext cx="1962150" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1495425" y="29527500"/>
+          <a:ext cx="571500" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>334744</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>38918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="33232725"/>
+          <a:ext cx="9802594" cy="5858693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8915400" y="36118800"/>
+          <a:ext cx="2057400" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>458541</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>153028</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="39471600"/>
+          <a:ext cx="9602541" cy="4496428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7839075" y="42757725"/>
+          <a:ext cx="1933575" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3162300" y="43367325"/>
+          <a:ext cx="1838325" cy="2533650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5048250" y="43614975"/>
+          <a:ext cx="3286125" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="876300" y="42738675"/>
+          <a:ext cx="3209925" cy="1819275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>96522</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>67415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="46396275"/>
+          <a:ext cx="9107172" cy="5296640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Arrow Connector 51"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="50425350"/>
+          <a:ext cx="1962150" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Arrow Connector 53"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7419975" y="51244500"/>
+          <a:ext cx="2895600" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -980,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C18:S99"/>
+  <dimension ref="B18:S269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
-      <selection activeCell="T93" sqref="T93"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="R270" sqref="R270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,6 +1838,66 @@
         <v>2</v>
       </c>
     </row>
+    <row r="128" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="R161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S190" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q225" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q226" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I242" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R268" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="269" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R269" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
